--- a/ComputerConfigurator/Resources/MotherBoard.xlsx
+++ b/ComputerConfigurator/Resources/MotherBoard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="6705" yWindow="1350" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="63">
   <si>
     <t>Название</t>
   </si>
@@ -162,24 +162,6 @@
     <t>https://www.dns-shop.ru/product/e1723cf736523332/materinskaa-plata-asrock-b365-phantom-gaming-4/characteristics/</t>
   </si>
   <si>
-    <t>Esonic G31CEL2</t>
-  </si>
-  <si>
-    <t>Esonic</t>
-  </si>
-  <si>
-    <t>LGA 775</t>
-  </si>
-  <si>
-    <t>Intel G31</t>
-  </si>
-  <si>
-    <t>DDR2</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/35d1d07954a53330/materinskaa-plata-esonic-g31cel2/characteristics/</t>
-  </si>
-  <si>
     <t>GIGABYTE GA-E6010N</t>
   </si>
   <si>
@@ -192,15 +174,6 @@
     <t>BGA769 (FT3b)</t>
   </si>
   <si>
-    <t>Esonic G41CRL3</t>
-  </si>
-  <si>
-    <t>Intel G41</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/e1e7177feb2c3332/materinskaa-plata-esonic-g41crl3/characteristics/</t>
-  </si>
-  <si>
     <t>https://www.dns-shop.ru/product/5eff33abd7c03333/materinskaa-plata-gigabyte-ga-e6010n/characteristics/</t>
   </si>
   <si>
@@ -219,55 +192,19 @@
     <t>https://www.dns-shop.ru/product/93043e718e4a3332/materinskaa-plata-asrock-a320m-hdv-r40/characteristics/</t>
   </si>
   <si>
-    <t>Biostar A68MHE</t>
-  </si>
-  <si>
-    <t>Biostar</t>
-  </si>
-  <si>
-    <t>FM2+</t>
-  </si>
-  <si>
-    <t>AMD A68H</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/c44cd149cc801b80/materinskaa-plata-biostar-a68mhe/characteristics/</t>
-  </si>
-  <si>
     <t>MSI A320M PRO-E</t>
   </si>
   <si>
     <t>https://www.dns-shop.ru/product/31ac5d04fc2a3332/materinskaa-plata-msi-a320m-pro-e/characteristics/</t>
   </si>
   <si>
-    <t>Biostar H110MHV3</t>
-  </si>
-  <si>
-    <t>LGA 1151</t>
-  </si>
-  <si>
-    <t>Intel H110</t>
-  </si>
-  <si>
-    <t>DDR3L</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/a154763664273332/materinskaa-plata-biostar-h110mhv3/characteristics/</t>
-  </si>
-  <si>
     <t>GIGABYTE GA-A320M-H</t>
   </si>
   <si>
     <t>https://www.dns-shop.ru/product/a47a63f7d33c1b80/materinskaa-plata-gigabyte-ga-a320m-h/characteristics/</t>
   </si>
   <si>
-    <t>Esonic G41CPL3</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/df791f68eb2e3332/materinskaa-plata-esonic-g41cpl3/characteristics/</t>
-  </si>
-  <si>
-    <t>end</t>
+    <t>GIGABYTE B450M GAMING</t>
   </si>
 </sst>
 </file>
@@ -655,7 +592,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -809,7 +746,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B4" s="6">
         <v>5799</v>
@@ -1161,28 +1098,28 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B12" s="6">
-        <v>2899</v>
+        <v>3899</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
-        <v>19</v>
+      <c r="H12">
+        <v>1</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
@@ -1194,18 +1131,18 @@
         <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B13" s="6">
         <v>2999</v>
@@ -1217,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>19</v>
@@ -1232,19 +1169,19 @@
         <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
         <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M13">
         <v>2</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1252,19 +1189,19 @@
         <v>58</v>
       </c>
       <c r="B14" s="6">
-        <v>3599</v>
+        <v>3799</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1282,18 +1219,18 @@
         <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="M14">
         <v>2</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B15" s="6">
         <v>3799</v>
@@ -1308,7 +1245,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1332,12 +1269,12 @@
         <v>2</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B16" s="6">
         <v>3799</v>
@@ -1352,7 +1289,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1376,234 +1313,30 @@
         <v>2</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="6">
-        <v>3799</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="6">
-        <v>3799</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="6">
-        <v>3899</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="6">
-        <v>3899</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="6">
-        <v>3999</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="3"/>
-      <c r="E22" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="E22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1618,19 +1351,14 @@
     <hyperlink ref="N9" r:id="rId8"/>
     <hyperlink ref="N10" r:id="rId9"/>
     <hyperlink ref="N11" r:id="rId10"/>
-    <hyperlink ref="N12" r:id="rId11"/>
-    <hyperlink ref="N14" r:id="rId12"/>
-    <hyperlink ref="N13" r:id="rId13"/>
-    <hyperlink ref="N15" r:id="rId14"/>
-    <hyperlink ref="N16" r:id="rId15"/>
-    <hyperlink ref="N17" r:id="rId16"/>
-    <hyperlink ref="N18" r:id="rId17"/>
-    <hyperlink ref="N19" r:id="rId18"/>
-    <hyperlink ref="N20" r:id="rId19"/>
-    <hyperlink ref="N21" r:id="rId20"/>
+    <hyperlink ref="N15" r:id="rId11"/>
+    <hyperlink ref="N16" r:id="rId12"/>
+    <hyperlink ref="N14" r:id="rId13"/>
+    <hyperlink ref="N12" r:id="rId14"/>
+    <hyperlink ref="N13" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId16"/>
 </worksheet>
 </file>
 
